--- a/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>

--- a/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
